--- a/Benchmark/Datas/tables.xlsx
+++ b/Benchmark/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F041E1A-47D9-4B89-AE07-5E0EC45CE5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A91878-4066-42AA-BBFD-8804DFCDCFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="529">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1637,6 +1637,10 @@
   </si>
   <si>
     <t>benchmark_tables/table2.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2021,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:J504"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2037,12 +2041,12 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2070,8 +2074,11 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2141,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -2176,7 +2183,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2190,7 +2197,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2211,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -2232,7 +2239,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>37</v>
       </c>

--- a/Benchmark/Datas/tables.xlsx
+++ b/Benchmark/Datas/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A91878-4066-42AA-BBFD-8804DFCDCFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDAC719-2E77-40E3-85E2-5AC422CDCCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26100" windowHeight="14850" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="30000" yWindow="2145" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>branch_input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表id字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1641,6 +1637,10 @@
   </si>
   <si>
     <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch_input</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -2072,15 +2072,15 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -2092,7039 +2092,7039 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C169" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C170" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C224" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C239" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D241" t="b">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D249" t="b">
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D251" t="b">
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C253" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C254" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D255" t="b">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D256" t="b">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D257" t="b">
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C258" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D258" t="b">
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D262" t="b">
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C263" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C264" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C265" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C266" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D266" t="b">
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C267" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C268" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D268" t="b">
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C269" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C270" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D270" t="b">
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C271" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C272" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C273" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C274" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C275" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D275" t="b">
         <v>0</v>
       </c>
       <c r="E275" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C276" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D277" t="b">
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C278" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D278" t="b">
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C279" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D279" t="b">
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C280" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D280" t="b">
         <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C281" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D281" t="b">
         <v>0</v>
       </c>
       <c r="E281" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C283" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D285" t="b">
         <v>0</v>
       </c>
       <c r="E285" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D286" t="b">
         <v>0</v>
       </c>
       <c r="E286" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C287" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C288" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D288" t="b">
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C289" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C290" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C291" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D291" t="b">
         <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D292" t="b">
         <v>0</v>
       </c>
       <c r="E292" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C293" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C294" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D294" t="b">
         <v>0</v>
       </c>
       <c r="E294" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C295" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C296" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D296" t="b">
         <v>0</v>
       </c>
       <c r="E296" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C297" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D297" t="b">
         <v>0</v>
       </c>
       <c r="E297" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D298" t="b">
         <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C299" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D299" t="b">
         <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C301" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C302" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D303" t="b">
         <v>0</v>
       </c>
       <c r="E303" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C304" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D304" t="b">
         <v>0</v>
       </c>
       <c r="E304" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C305" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D306" t="b">
         <v>0</v>
       </c>
       <c r="E306" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C307" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D307" t="b">
         <v>0</v>
       </c>
       <c r="E307" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D308" t="b">
         <v>0</v>
       </c>
       <c r="E308" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D309" t="b">
         <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D310" t="b">
         <v>0</v>
       </c>
       <c r="E310" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C311" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C312" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D312" t="b">
         <v>0</v>
       </c>
       <c r="E312" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C314" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C316" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D317" t="b">
         <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C318" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D318" t="b">
         <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C319" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D319" t="b">
         <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D320" t="b">
         <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D321" t="b">
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C322" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D322" t="b">
         <v>0</v>
       </c>
       <c r="E322" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C323" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D323" t="b">
         <v>0</v>
       </c>
       <c r="E323" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D325" t="b">
         <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D326" t="b">
         <v>0</v>
       </c>
       <c r="E326" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C327" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C328" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D329" t="b">
         <v>0</v>
       </c>
       <c r="E329" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D330" t="b">
         <v>0</v>
       </c>
       <c r="E330" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D331" t="b">
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D333" t="b">
         <v>0</v>
       </c>
       <c r="E333" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D334" t="b">
         <v>0</v>
       </c>
       <c r="E334" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D335" t="b">
         <v>0</v>
       </c>
       <c r="E335" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D336" t="b">
         <v>0</v>
       </c>
       <c r="E336" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D337" t="b">
         <v>0</v>
       </c>
       <c r="E337" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C338" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D338" t="b">
         <v>0</v>
       </c>
       <c r="E338" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C339" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
       </c>
       <c r="E339" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C340" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D340" t="b">
         <v>0</v>
       </c>
       <c r="E340" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C342" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D342" t="b">
         <v>0</v>
       </c>
       <c r="E342" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C343" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D343" t="b">
         <v>0</v>
       </c>
       <c r="E343" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C344" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C345" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D345" t="b">
         <v>0</v>
       </c>
       <c r="E345" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C346" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D346" t="b">
         <v>0</v>
       </c>
       <c r="E346" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C348" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D348" t="b">
         <v>0</v>
       </c>
       <c r="E348" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C349" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D350" t="b">
         <v>0</v>
       </c>
       <c r="E350" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C351" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D351" t="b">
         <v>0</v>
       </c>
       <c r="E351" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C352" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D352" t="b">
         <v>0</v>
       </c>
       <c r="E352" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C354" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D354" t="b">
         <v>0</v>
       </c>
       <c r="E354" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C355" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D355" t="b">
         <v>0</v>
       </c>
       <c r="E355" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C356" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D356" t="b">
         <v>0</v>
       </c>
       <c r="E356" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C357" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C358" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C359" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D359" t="b">
         <v>0</v>
       </c>
       <c r="E359" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C360" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D360" t="b">
         <v>0</v>
       </c>
       <c r="E360" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C361" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D361" t="b">
         <v>0</v>
       </c>
       <c r="E361" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D362" t="b">
         <v>0</v>
       </c>
       <c r="E362" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C363" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C364" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D364" t="b">
         <v>0</v>
       </c>
       <c r="E364" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C365" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
       </c>
       <c r="E365" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C366" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D366" t="b">
         <v>0</v>
       </c>
       <c r="E366" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C367" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D367" t="b">
         <v>0</v>
       </c>
       <c r="E367" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C368" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D368" t="b">
         <v>0</v>
       </c>
       <c r="E368" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C369" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D369" t="b">
         <v>0</v>
       </c>
       <c r="E369" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C370" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D370" t="b">
         <v>0</v>
       </c>
       <c r="E370" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C371" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D371" t="b">
         <v>0</v>
       </c>
       <c r="E371" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C372" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C373" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D373" t="b">
         <v>0</v>
       </c>
       <c r="E373" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C374" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D374" t="b">
         <v>0</v>
       </c>
       <c r="E374" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C375" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D375" t="b">
         <v>0</v>
       </c>
       <c r="E375" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C376" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D376" t="b">
         <v>0</v>
       </c>
       <c r="E376" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C377" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D377" t="b">
         <v>0</v>
       </c>
       <c r="E377" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C378" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D378" t="b">
         <v>0</v>
       </c>
       <c r="E378" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C379" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D379" t="b">
         <v>0</v>
       </c>
       <c r="E379" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C380" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D380" t="b">
         <v>0</v>
       </c>
       <c r="E380" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C381" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D381" t="b">
         <v>0</v>
       </c>
       <c r="E381" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C382" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D382" t="b">
         <v>0</v>
       </c>
       <c r="E382" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C383" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D383" t="b">
         <v>0</v>
       </c>
       <c r="E383" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C384" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D384" t="b">
         <v>0</v>
       </c>
       <c r="E384" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C385" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D385" t="b">
         <v>0</v>
       </c>
       <c r="E385" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C386" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D386" t="b">
         <v>0</v>
       </c>
       <c r="E386" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C387" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D387" t="b">
         <v>0</v>
       </c>
       <c r="E387" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C388" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D388" t="b">
         <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C389" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D389" t="b">
         <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C390" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D390" t="b">
         <v>0</v>
       </c>
       <c r="E390" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C391" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D391" t="b">
         <v>0</v>
       </c>
       <c r="E391" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C392" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D392" t="b">
         <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C393" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D393" t="b">
         <v>0</v>
       </c>
       <c r="E393" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C394" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D394" t="b">
         <v>0</v>
       </c>
       <c r="E394" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C395" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D395" t="b">
         <v>0</v>
       </c>
       <c r="E395" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C396" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D396" t="b">
         <v>0</v>
       </c>
       <c r="E396" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C397" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D397" t="b">
         <v>0</v>
       </c>
       <c r="E397" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C398" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D398" t="b">
         <v>0</v>
       </c>
       <c r="E398" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C399" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D399" t="b">
         <v>0</v>
       </c>
       <c r="E399" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C400" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D400" t="b">
         <v>0</v>
       </c>
       <c r="E400" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C401" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D401" t="b">
         <v>0</v>
       </c>
       <c r="E401" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C402" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D402" t="b">
         <v>0</v>
       </c>
       <c r="E402" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C403" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D403" t="b">
         <v>0</v>
       </c>
       <c r="E403" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C404" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D404" t="b">
         <v>0</v>
       </c>
       <c r="E404" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C405" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D405" t="b">
         <v>0</v>
       </c>
       <c r="E405" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C406" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D406" t="b">
         <v>0</v>
       </c>
       <c r="E406" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D407" t="b">
         <v>0</v>
       </c>
       <c r="E407" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C408" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D408" t="b">
         <v>0</v>
       </c>
       <c r="E408" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C409" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D409" t="b">
         <v>0</v>
       </c>
       <c r="E409" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C410" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D410" t="b">
         <v>0</v>
       </c>
       <c r="E410" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C411" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D411" t="b">
         <v>0</v>
       </c>
       <c r="E411" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C412" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D412" t="b">
         <v>0</v>
       </c>
       <c r="E412" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C413" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D413" t="b">
         <v>0</v>
       </c>
       <c r="E413" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C414" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D414" t="b">
         <v>0</v>
       </c>
       <c r="E414" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C415" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D415" t="b">
         <v>0</v>
       </c>
       <c r="E415" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C416" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D416" t="b">
         <v>0</v>
       </c>
       <c r="E416" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C417" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D417" t="b">
         <v>0</v>
       </c>
       <c r="E417" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C418" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D418" t="b">
         <v>0</v>
       </c>
       <c r="E418" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C419" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D419" t="b">
         <v>0</v>
       </c>
       <c r="E419" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C420" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D420" t="b">
         <v>0</v>
       </c>
       <c r="E420" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C421" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D421" t="b">
         <v>0</v>
       </c>
       <c r="E421" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C422" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D422" t="b">
         <v>0</v>
       </c>
       <c r="E422" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C423" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D423" t="b">
         <v>0</v>
       </c>
       <c r="E423" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C424" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D424" t="b">
         <v>0</v>
       </c>
       <c r="E424" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C425" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D425" t="b">
         <v>0</v>
       </c>
       <c r="E425" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C426" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D426" t="b">
         <v>0</v>
       </c>
       <c r="E426" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C427" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D427" t="b">
         <v>0</v>
       </c>
       <c r="E427" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C428" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D428" t="b">
         <v>0</v>
       </c>
       <c r="E428" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C429" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D429" t="b">
         <v>0</v>
       </c>
       <c r="E429" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C430" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D430" t="b">
         <v>0</v>
       </c>
       <c r="E430" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C431" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D431" t="b">
         <v>0</v>
       </c>
       <c r="E431" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C432" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D432" t="b">
         <v>0</v>
       </c>
       <c r="E432" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C433" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D433" t="b">
         <v>0</v>
       </c>
       <c r="E433" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C434" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D434" t="b">
         <v>0</v>
       </c>
       <c r="E434" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C435" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D435" t="b">
         <v>0</v>
       </c>
       <c r="E435" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C436" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D436" t="b">
         <v>0</v>
       </c>
       <c r="E436" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C437" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D437" t="b">
         <v>0</v>
       </c>
       <c r="E437" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C438" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D438" t="b">
         <v>0</v>
       </c>
       <c r="E438" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C439" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D439" t="b">
         <v>0</v>
       </c>
       <c r="E439" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C440" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D440" t="b">
         <v>0</v>
       </c>
       <c r="E440" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C441" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D441" t="b">
         <v>0</v>
       </c>
       <c r="E441" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C442" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D442" t="b">
         <v>0</v>
       </c>
       <c r="E442" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C443" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D443" t="b">
         <v>0</v>
       </c>
       <c r="E443" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C444" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D444" t="b">
         <v>0</v>
       </c>
       <c r="E444" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C445" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D445" t="b">
         <v>0</v>
       </c>
       <c r="E445" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C446" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D446" t="b">
         <v>0</v>
       </c>
       <c r="E446" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C447" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D447" t="b">
         <v>0</v>
       </c>
       <c r="E447" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C448" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D448" t="b">
         <v>0</v>
       </c>
       <c r="E448" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C449" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D449" t="b">
         <v>0</v>
       </c>
       <c r="E449" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C450" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D450" t="b">
         <v>0</v>
       </c>
       <c r="E450" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C451" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D451" t="b">
         <v>0</v>
       </c>
       <c r="E451" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C452" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D452" t="b">
         <v>0</v>
       </c>
       <c r="E452" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C453" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D453" t="b">
         <v>0</v>
       </c>
       <c r="E453" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C454" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D454" t="b">
         <v>0</v>
       </c>
       <c r="E454" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C455" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D455" t="b">
         <v>0</v>
       </c>
       <c r="E455" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C456" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D456" t="b">
         <v>0</v>
       </c>
       <c r="E456" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C457" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D457" t="b">
         <v>0</v>
       </c>
       <c r="E457" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C458" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D458" t="b">
         <v>0</v>
       </c>
       <c r="E458" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C459" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D459" t="b">
         <v>0</v>
       </c>
       <c r="E459" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C460" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D460" t="b">
         <v>0</v>
       </c>
       <c r="E460" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C461" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D461" t="b">
         <v>0</v>
       </c>
       <c r="E461" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C462" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D462" t="b">
         <v>0</v>
       </c>
       <c r="E462" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C463" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D463" t="b">
         <v>0</v>
       </c>
       <c r="E463" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C464" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D464" t="b">
         <v>0</v>
       </c>
       <c r="E464" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C465" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D465" t="b">
         <v>0</v>
       </c>
       <c r="E465" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C466" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D466" t="b">
         <v>0</v>
       </c>
       <c r="E466" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C467" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D467" t="b">
         <v>0</v>
       </c>
       <c r="E467" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C468" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D468" t="b">
         <v>0</v>
       </c>
       <c r="E468" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C469" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D469" t="b">
         <v>0</v>
       </c>
       <c r="E469" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C470" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D470" t="b">
         <v>0</v>
       </c>
       <c r="E470" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C471" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D471" t="b">
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C472" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D472" t="b">
         <v>0</v>
       </c>
       <c r="E472" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C473" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D473" t="b">
         <v>0</v>
       </c>
       <c r="E473" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C474" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D474" t="b">
         <v>0</v>
       </c>
       <c r="E474" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C475" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D475" t="b">
         <v>0</v>
       </c>
       <c r="E475" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C476" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D476" t="b">
         <v>0</v>
       </c>
       <c r="E476" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C477" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D477" t="b">
         <v>0</v>
       </c>
       <c r="E477" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C478" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D478" t="b">
         <v>0</v>
       </c>
       <c r="E478" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C479" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D479" t="b">
         <v>0</v>
       </c>
       <c r="E479" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C480" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D480" t="b">
         <v>0</v>
       </c>
       <c r="E480" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C481" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D481" t="b">
         <v>0</v>
       </c>
       <c r="E481" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C482" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D482" t="b">
         <v>0</v>
       </c>
       <c r="E482" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B483" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C483" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D483" t="b">
         <v>0</v>
       </c>
       <c r="E483" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C484" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D484" t="b">
         <v>0</v>
       </c>
       <c r="E484" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C485" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D485" t="b">
         <v>0</v>
       </c>
       <c r="E485" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C486" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D486" t="b">
         <v>0</v>
       </c>
       <c r="E486" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C487" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D487" t="b">
         <v>0</v>
       </c>
       <c r="E487" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C488" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D488" t="b">
         <v>0</v>
       </c>
       <c r="E488" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C489" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D489" t="b">
         <v>0</v>
       </c>
       <c r="E489" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C490" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D490" t="b">
         <v>0</v>
       </c>
       <c r="E490" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C491" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D491" t="b">
         <v>0</v>
       </c>
       <c r="E491" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C492" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D492" t="b">
         <v>0</v>
       </c>
       <c r="E492" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C493" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D493" t="b">
         <v>0</v>
       </c>
       <c r="E493" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C494" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D494" t="b">
         <v>0</v>
       </c>
       <c r="E494" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C495" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D495" t="b">
         <v>0</v>
       </c>
       <c r="E495" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C496" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D496" t="b">
         <v>0</v>
       </c>
       <c r="E496" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B497" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C497" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D497" t="b">
         <v>0</v>
       </c>
       <c r="E497" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B498" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C498" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D498" t="b">
         <v>0</v>
       </c>
       <c r="E498" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C499" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D499" t="b">
         <v>0</v>
       </c>
       <c r="E499" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C500" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D500" t="b">
         <v>0</v>
       </c>
       <c r="E500" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C501" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D501" t="b">
         <v>0</v>
       </c>
       <c r="E501" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C502" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D502" t="b">
         <v>0</v>
       </c>
       <c r="E502" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C503" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D503" t="b">
         <v>0</v>
       </c>
       <c r="E503" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="504" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C504" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D504" t="b">
         <v>0</v>
       </c>
       <c r="E504" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark/Datas/tables.xlsx
+++ b/Benchmark/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDAC719-2E77-40E3-85E2-5AC422CDCCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F922BF-5F17-4063-BE83-9651633714F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="2145" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="-1005" yWindow="2415" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="530">
   <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1641,6 +1641,10 @@
   </si>
   <si>
     <t>patch_input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2025,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:L504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2041,12 +2045,12 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2077,8 +2081,11 @@
       <c r="K2" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2127,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2148,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2176,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -2197,7 +2204,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>31</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -2281,7 +2288,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>36</v>
       </c>

--- a/Benchmark/Datas/tables.xlsx
+++ b/Benchmark/Datas/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\Benchmark\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F922BF-5F17-4063-BE83-9651633714F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3BF91-7F1D-4C1D-B7DE-9208417BC318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1005" yWindow="2415" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
+    <workbookView xWindow="30210" yWindow="2355" windowWidth="25335" windowHeight="12915" xr2:uid="{947BE16E-96E8-4B86-802B-E77C4FDA60B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="530">
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="530">
   <si>
     <t>记录类名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1645,6 +1641,10 @@
   </si>
   <si>
     <t>output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2029,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9106277-D8F0-4267-8ADA-C7EA4498DD01}">
-  <dimension ref="A1:L504"/>
+  <dimension ref="A1:L503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2045,58 +2045,85 @@
     <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2105,47 +2132,38 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2153,13 +2171,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2167,13 +2185,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2181,13 +2199,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2195,13 +2213,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2209,13 +2227,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2223,13 +2241,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2237,13 +2255,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2251,13 +2269,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2265,13 +2283,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2279,13 +2297,13 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2293,13 +2311,13 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -2307,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -2321,13 +2339,13 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -2335,13 +2353,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -2349,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -2363,13 +2381,13 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -2377,13 +2395,13 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -2391,13 +2409,13 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -2405,13 +2423,13 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -2419,13 +2437,13 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -2433,13 +2451,13 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -2447,13 +2465,13 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -2461,13 +2479,13 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -2475,13 +2493,13 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -2489,13 +2507,13 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -2503,13 +2521,13 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -2517,13 +2535,13 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -2531,13 +2549,13 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -2545,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -2559,13 +2577,13 @@
         <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -2573,13 +2591,13 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -2587,13 +2605,13 @@
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -2601,13 +2619,13 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -2615,13 +2633,13 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -2629,13 +2647,13 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -2643,13 +2661,13 @@
         <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -2657,13 +2675,13 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -2671,13 +2689,13 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -2685,13 +2703,13 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -2699,13 +2717,13 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -2713,13 +2731,13 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -2727,13 +2745,13 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -2741,13 +2759,13 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -2755,13 +2773,13 @@
         <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -2769,13 +2787,13 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -2783,13 +2801,13 @@
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -2797,13 +2815,13 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -2811,13 +2829,13 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -2825,13 +2843,13 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -2839,13 +2857,13 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -2853,13 +2871,13 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
@@ -2867,13 +2885,13 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -2881,13 +2899,13 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -2895,13 +2913,13 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -2909,13 +2927,13 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -2923,13 +2941,13 @@
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -2937,13 +2955,13 @@
         <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -2951,13 +2969,13 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -2965,13 +2983,13 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -2979,13 +2997,13 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -2993,13 +3011,13 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -3007,13 +3025,13 @@
         <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -3021,13 +3039,13 @@
         <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -3035,13 +3053,13 @@
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -3049,13 +3067,13 @@
         <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -3063,13 +3081,13 @@
         <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -3077,13 +3095,13 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -3091,13 +3109,13 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -3105,13 +3123,13 @@
         <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -3119,13 +3137,13 @@
         <v>95</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -3133,13 +3151,13 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -3147,13 +3165,13 @@
         <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -3161,13 +3179,13 @@
         <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -3175,13 +3193,13 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -3189,13 +3207,13 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -3203,13 +3221,13 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -3217,13 +3235,13 @@
         <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
@@ -3231,13 +3249,13 @@
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -3245,13 +3263,13 @@
         <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -3259,13 +3277,13 @@
         <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -3273,13 +3291,13 @@
         <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -3287,13 +3305,13 @@
         <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -3301,13 +3319,13 @@
         <v>108</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -3315,13 +3333,13 @@
         <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -3329,13 +3347,13 @@
         <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -3343,13 +3361,13 @@
         <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -3357,13 +3375,13 @@
         <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -3371,13 +3389,13 @@
         <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -3385,13 +3403,13 @@
         <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -3399,13 +3417,13 @@
         <v>115</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -3413,13 +3431,13 @@
         <v>116</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -3427,13 +3445,13 @@
         <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -3441,13 +3459,13 @@
         <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
@@ -3455,13 +3473,13 @@
         <v>119</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
@@ -3469,13 +3487,13 @@
         <v>120</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
@@ -3483,13 +3501,13 @@
         <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3497,13 +3515,13 @@
         <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
@@ -3511,13 +3529,13 @@
         <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -3525,13 +3543,13 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -3539,13 +3557,13 @@
         <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -3553,13 +3571,13 @@
         <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -3567,13 +3585,13 @@
         <v>127</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
@@ -3581,13 +3599,13 @@
         <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -3595,13 +3613,13 @@
         <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -3609,13 +3627,13 @@
         <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -3623,13 +3641,13 @@
         <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -3637,13 +3655,13 @@
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -3651,13 +3669,13 @@
         <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -3665,13 +3683,13 @@
         <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -3679,13 +3697,13 @@
         <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
@@ -3693,13 +3711,13 @@
         <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -3707,13 +3725,13 @@
         <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
@@ -3721,13 +3739,13 @@
         <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
@@ -3735,13 +3753,13 @@
         <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -3749,13 +3767,13 @@
         <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
@@ -3763,13 +3781,13 @@
         <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
@@ -3777,13 +3795,13 @@
         <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
@@ -3791,13 +3809,13 @@
         <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -3805,13 +3823,13 @@
         <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
@@ -3819,13 +3837,13 @@
         <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -3833,13 +3851,13 @@
         <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
@@ -3847,13 +3865,13 @@
         <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
@@ -3861,13 +3879,13 @@
         <v>148</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -3875,13 +3893,13 @@
         <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
@@ -3889,13 +3907,13 @@
         <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
@@ -3903,13 +3921,13 @@
         <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
@@ -3917,13 +3935,13 @@
         <v>152</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -3931,13 +3949,13 @@
         <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
@@ -3945,13 +3963,13 @@
         <v>154</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
@@ -3959,13 +3977,13 @@
         <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
@@ -3973,13 +3991,13 @@
         <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
@@ -3987,13 +4005,13 @@
         <v>157</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -4001,13 +4019,13 @@
         <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
@@ -4015,13 +4033,13 @@
         <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
@@ -4029,13 +4047,13 @@
         <v>160</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
@@ -4043,13 +4061,13 @@
         <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -4057,13 +4075,13 @@
         <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
@@ -4071,13 +4089,13 @@
         <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
@@ -4085,13 +4103,13 @@
         <v>164</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
@@ -4099,13 +4117,13 @@
         <v>165</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
@@ -4113,13 +4131,13 @@
         <v>166</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
@@ -4127,13 +4145,13 @@
         <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -4141,13 +4159,13 @@
         <v>168</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -4155,13 +4173,13 @@
         <v>169</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -4169,13 +4187,13 @@
         <v>170</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -4183,13 +4201,13 @@
         <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
@@ -4197,13 +4215,13 @@
         <v>172</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -4211,13 +4229,13 @@
         <v>173</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -4225,13 +4243,13 @@
         <v>174</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -4239,13 +4257,13 @@
         <v>175</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
@@ -4253,13 +4271,13 @@
         <v>176</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
@@ -4267,13 +4285,13 @@
         <v>177</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
@@ -4281,13 +4299,13 @@
         <v>178</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -4295,13 +4313,13 @@
         <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -4309,13 +4327,13 @@
         <v>180</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -4323,13 +4341,13 @@
         <v>181</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
@@ -4337,13 +4355,13 @@
         <v>182</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
@@ -4351,13 +4369,13 @@
         <v>183</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
@@ -4365,13 +4383,13 @@
         <v>184</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
@@ -4379,13 +4397,13 @@
         <v>185</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
@@ -4393,13 +4411,13 @@
         <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
@@ -4407,13 +4425,13 @@
         <v>187</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
@@ -4421,13 +4439,13 @@
         <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
@@ -4435,13 +4453,13 @@
         <v>189</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
@@ -4449,13 +4467,13 @@
         <v>190</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
@@ -4463,13 +4481,13 @@
         <v>191</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
@@ -4477,13 +4495,13 @@
         <v>192</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
@@ -4491,13 +4509,13 @@
         <v>193</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
@@ -4505,13 +4523,13 @@
         <v>194</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
@@ -4519,13 +4537,13 @@
         <v>195</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
@@ -4533,13 +4551,13 @@
         <v>196</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
@@ -4547,13 +4565,13 @@
         <v>197</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
@@ -4561,13 +4579,13 @@
         <v>198</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
@@ -4575,13 +4593,13 @@
         <v>199</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
@@ -4589,13 +4607,13 @@
         <v>200</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
@@ -4603,13 +4621,13 @@
         <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
@@ -4617,13 +4635,13 @@
         <v>202</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
@@ -4631,13 +4649,13 @@
         <v>203</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
@@ -4645,13 +4663,13 @@
         <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
@@ -4659,13 +4677,13 @@
         <v>205</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
@@ -4673,13 +4691,13 @@
         <v>206</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
@@ -4687,13 +4705,13 @@
         <v>207</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
@@ -4701,13 +4719,13 @@
         <v>208</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
@@ -4715,13 +4733,13 @@
         <v>209</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
@@ -4729,13 +4747,13 @@
         <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
@@ -4743,13 +4761,13 @@
         <v>211</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
@@ -4757,13 +4775,13 @@
         <v>212</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
@@ -4771,13 +4789,13 @@
         <v>213</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
@@ -4785,13 +4803,13 @@
         <v>214</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
@@ -4799,13 +4817,13 @@
         <v>215</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
@@ -4813,13 +4831,13 @@
         <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
@@ -4827,13 +4845,13 @@
         <v>217</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
@@ -4841,13 +4859,13 @@
         <v>218</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
@@ -4855,13 +4873,13 @@
         <v>219</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
@@ -4869,13 +4887,13 @@
         <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
@@ -4883,13 +4901,13 @@
         <v>221</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
@@ -4897,13 +4915,13 @@
         <v>222</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
@@ -4911,13 +4929,13 @@
         <v>223</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
@@ -4925,13 +4943,13 @@
         <v>224</v>
       </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
@@ -4939,13 +4957,13 @@
         <v>225</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
@@ -4953,13 +4971,13 @@
         <v>226</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
@@ -4967,13 +4985,13 @@
         <v>227</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
@@ -4981,13 +4999,13 @@
         <v>228</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
@@ -4995,13 +5013,13 @@
         <v>229</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
@@ -5009,13 +5027,13 @@
         <v>230</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
@@ -5023,13 +5041,13 @@
         <v>231</v>
       </c>
       <c r="C211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
@@ -5037,13 +5055,13 @@
         <v>232</v>
       </c>
       <c r="C212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
@@ -5051,13 +5069,13 @@
         <v>233</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
       </c>
       <c r="E213" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
@@ -5065,13 +5083,13 @@
         <v>234</v>
       </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
@@ -5079,13 +5097,13 @@
         <v>235</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
@@ -5093,13 +5111,13 @@
         <v>236</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
@@ -5107,13 +5125,13 @@
         <v>237</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
@@ -5121,13 +5139,13 @@
         <v>238</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
@@ -5135,13 +5153,13 @@
         <v>239</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
@@ -5149,13 +5167,13 @@
         <v>240</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
@@ -5163,13 +5181,13 @@
         <v>241</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
@@ -5177,13 +5195,13 @@
         <v>242</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
@@ -5191,13 +5209,13 @@
         <v>243</v>
       </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
@@ -5205,13 +5223,13 @@
         <v>244</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
@@ -5219,13 +5237,13 @@
         <v>245</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
@@ -5233,13 +5251,13 @@
         <v>246</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
@@ -5247,13 +5265,13 @@
         <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
@@ -5261,13 +5279,13 @@
         <v>248</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
@@ -5275,13 +5293,13 @@
         <v>249</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
@@ -5289,13 +5307,13 @@
         <v>250</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.2">
@@ -5303,13 +5321,13 @@
         <v>251</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.2">
@@ -5317,13 +5335,13 @@
         <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.2">
@@ -5331,13 +5349,13 @@
         <v>253</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.2">
@@ -5345,13 +5363,13 @@
         <v>254</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
@@ -5359,13 +5377,13 @@
         <v>255</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
@@ -5373,13 +5391,13 @@
         <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.2">
@@ -5387,13 +5405,13 @@
         <v>257</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
@@ -5401,13 +5419,13 @@
         <v>258</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
@@ -5415,13 +5433,13 @@
         <v>259</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.2">
@@ -5429,13 +5447,13 @@
         <v>260</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
@@ -5443,13 +5461,13 @@
         <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241" t="b">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
@@ -5457,13 +5475,13 @@
         <v>262</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.2">
@@ -5471,13 +5489,13 @@
         <v>263</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.2">
@@ -5485,13 +5503,13 @@
         <v>264</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
       </c>
       <c r="E244" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
@@ -5499,13 +5517,13 @@
         <v>265</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.2">
@@ -5513,13 +5531,13 @@
         <v>266</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
@@ -5527,13 +5545,13 @@
         <v>267</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
@@ -5541,13 +5559,13 @@
         <v>268</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
@@ -5555,13 +5573,13 @@
         <v>269</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D249" t="b">
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
@@ -5569,13 +5587,13 @@
         <v>270</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
@@ -5583,13 +5601,13 @@
         <v>271</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" t="b">
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
@@ -5597,13 +5615,13 @@
         <v>272</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
@@ -5611,13 +5629,13 @@
         <v>273</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
@@ -5625,13 +5643,13 @@
         <v>274</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
@@ -5639,13 +5657,13 @@
         <v>275</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" t="b">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
@@ -5653,13 +5671,13 @@
         <v>276</v>
       </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" t="b">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
@@ -5667,13 +5685,13 @@
         <v>277</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D257" t="b">
         <v>0</v>
       </c>
       <c r="E257" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
@@ -5681,13 +5699,13 @@
         <v>278</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D258" t="b">
         <v>0</v>
       </c>
       <c r="E258" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
@@ -5695,13 +5713,13 @@
         <v>279</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
@@ -5709,13 +5727,13 @@
         <v>280</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
@@ -5723,13 +5741,13 @@
         <v>281</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
@@ -5737,13 +5755,13 @@
         <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" t="b">
         <v>0</v>
       </c>
       <c r="E262" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
@@ -5751,13 +5769,13 @@
         <v>283</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.2">
@@ -5765,13 +5783,13 @@
         <v>284</v>
       </c>
       <c r="C264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.2">
@@ -5779,13 +5797,13 @@
         <v>285</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.2">
@@ -5793,13 +5811,13 @@
         <v>286</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D266" t="b">
         <v>0</v>
       </c>
       <c r="E266" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.2">
@@ -5807,13 +5825,13 @@
         <v>287</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
@@ -5821,13 +5839,13 @@
         <v>288</v>
       </c>
       <c r="C268" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D268" t="b">
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
@@ -5835,13 +5853,13 @@
         <v>289</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
@@ -5849,13 +5867,13 @@
         <v>290</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D270" t="b">
         <v>0</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.2">
@@ -5863,13 +5881,13 @@
         <v>291</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.2">
@@ -5877,13 +5895,13 @@
         <v>292</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
@@ -5891,13 +5909,13 @@
         <v>293</v>
       </c>
       <c r="C273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
@@ -5905,13 +5923,13 @@
         <v>294</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
@@ -5919,13 +5937,13 @@
         <v>295</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D275" t="b">
         <v>0</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
@@ -5933,13 +5951,13 @@
         <v>296</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
@@ -5947,13 +5965,13 @@
         <v>297</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D277" t="b">
         <v>0</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
@@ -5961,13 +5979,13 @@
         <v>298</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D278" t="b">
         <v>0</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
@@ -5975,13 +5993,13 @@
         <v>299</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D279" t="b">
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
@@ -5989,13 +6007,13 @@
         <v>300</v>
       </c>
       <c r="C280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D280" t="b">
         <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
@@ -6003,13 +6021,13 @@
         <v>301</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D281" t="b">
         <v>0</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
@@ -6017,13 +6035,13 @@
         <v>302</v>
       </c>
       <c r="C282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
@@ -6031,13 +6049,13 @@
         <v>303</v>
       </c>
       <c r="C283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
@@ -6045,13 +6063,13 @@
         <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
@@ -6059,13 +6077,13 @@
         <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D285" t="b">
         <v>0</v>
       </c>
       <c r="E285" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
@@ -6073,13 +6091,13 @@
         <v>306</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D286" t="b">
         <v>0</v>
       </c>
       <c r="E286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
@@ -6087,13 +6105,13 @@
         <v>307</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
@@ -6101,13 +6119,13 @@
         <v>308</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D288" t="b">
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.2">
@@ -6115,13 +6133,13 @@
         <v>309</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.2">
@@ -6129,13 +6147,13 @@
         <v>310</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.2">
@@ -6143,13 +6161,13 @@
         <v>311</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D291" t="b">
         <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.2">
@@ -6157,13 +6175,13 @@
         <v>312</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D292" t="b">
         <v>0</v>
       </c>
       <c r="E292" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.2">
@@ -6171,13 +6189,13 @@
         <v>313</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.2">
@@ -6185,13 +6203,13 @@
         <v>314</v>
       </c>
       <c r="C294" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D294" t="b">
         <v>0</v>
       </c>
       <c r="E294" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.2">
@@ -6199,13 +6217,13 @@
         <v>315</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.2">
@@ -6213,13 +6231,13 @@
         <v>316</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D296" t="b">
         <v>0</v>
       </c>
       <c r="E296" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.2">
@@ -6227,13 +6245,13 @@
         <v>317</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D297" t="b">
         <v>0</v>
       </c>
       <c r="E297" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.2">
@@ -6241,13 +6259,13 @@
         <v>318</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" t="b">
         <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.2">
@@ -6255,13 +6273,13 @@
         <v>319</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D299" t="b">
         <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.2">
@@ -6269,13 +6287,13 @@
         <v>320</v>
       </c>
       <c r="C300" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.2">
@@ -6283,13 +6301,13 @@
         <v>321</v>
       </c>
       <c r="C301" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.2">
@@ -6297,13 +6315,13 @@
         <v>322</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.2">
@@ -6311,13 +6329,13 @@
         <v>323</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D303" t="b">
         <v>0</v>
       </c>
       <c r="E303" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.2">
@@ -6325,13 +6343,13 @@
         <v>324</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D304" t="b">
         <v>0</v>
       </c>
       <c r="E304" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.2">
@@ -6339,13 +6357,13 @@
         <v>325</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.2">
@@ -6353,13 +6371,13 @@
         <v>326</v>
       </c>
       <c r="C306" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D306" t="b">
         <v>0</v>
       </c>
       <c r="E306" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.2">
@@ -6367,13 +6385,13 @@
         <v>327</v>
       </c>
       <c r="C307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D307" t="b">
         <v>0</v>
       </c>
       <c r="E307" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.2">
@@ -6381,13 +6399,13 @@
         <v>328</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D308" t="b">
         <v>0</v>
       </c>
       <c r="E308" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.2">
@@ -6395,13 +6413,13 @@
         <v>329</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D309" t="b">
         <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
@@ -6409,13 +6427,13 @@
         <v>330</v>
       </c>
       <c r="C310" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D310" t="b">
         <v>0</v>
       </c>
       <c r="E310" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.2">
@@ -6423,13 +6441,13 @@
         <v>331</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.2">
@@ -6437,13 +6455,13 @@
         <v>332</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D312" t="b">
         <v>0</v>
       </c>
       <c r="E312" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.2">
@@ -6451,13 +6469,13 @@
         <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.2">
@@ -6465,13 +6483,13 @@
         <v>334</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.2">
@@ -6479,13 +6497,13 @@
         <v>335</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
@@ -6493,13 +6511,13 @@
         <v>336</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.2">
@@ -6507,13 +6525,13 @@
         <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D317" t="b">
         <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.2">
@@ -6521,13 +6539,13 @@
         <v>338</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D318" t="b">
         <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
@@ -6535,13 +6553,13 @@
         <v>339</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D319" t="b">
         <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
@@ -6549,13 +6567,13 @@
         <v>340</v>
       </c>
       <c r="C320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D320" t="b">
         <v>0</v>
       </c>
       <c r="E320" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.2">
@@ -6563,13 +6581,13 @@
         <v>341</v>
       </c>
       <c r="C321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D321" t="b">
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.2">
@@ -6577,13 +6595,13 @@
         <v>342</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322" t="b">
         <v>0</v>
       </c>
       <c r="E322" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.2">
@@ -6591,13 +6609,13 @@
         <v>343</v>
       </c>
       <c r="C323" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D323" t="b">
         <v>0</v>
       </c>
       <c r="E323" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.2">
@@ -6605,13 +6623,13 @@
         <v>344</v>
       </c>
       <c r="C324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.2">
@@ -6619,13 +6637,13 @@
         <v>345</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" t="b">
         <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.2">
@@ -6633,13 +6651,13 @@
         <v>346</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D326" t="b">
         <v>0</v>
       </c>
       <c r="E326" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.2">
@@ -6647,13 +6665,13 @@
         <v>347</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.2">
@@ -6661,13 +6679,13 @@
         <v>348</v>
       </c>
       <c r="C328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.2">
@@ -6675,13 +6693,13 @@
         <v>349</v>
       </c>
       <c r="C329" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D329" t="b">
         <v>0</v>
       </c>
       <c r="E329" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.2">
@@ -6689,13 +6707,13 @@
         <v>350</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D330" t="b">
         <v>0</v>
       </c>
       <c r="E330" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.2">
@@ -6703,13 +6721,13 @@
         <v>351</v>
       </c>
       <c r="C331" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D331" t="b">
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.2">
@@ -6717,13 +6735,13 @@
         <v>352</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.2">
@@ -6731,13 +6749,13 @@
         <v>353</v>
       </c>
       <c r="C333" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D333" t="b">
         <v>0</v>
       </c>
       <c r="E333" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.2">
@@ -6745,13 +6763,13 @@
         <v>354</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D334" t="b">
         <v>0</v>
       </c>
       <c r="E334" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.2">
@@ -6759,13 +6777,13 @@
         <v>355</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D335" t="b">
         <v>0</v>
       </c>
       <c r="E335" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.2">
@@ -6773,13 +6791,13 @@
         <v>356</v>
       </c>
       <c r="C336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D336" t="b">
         <v>0</v>
       </c>
       <c r="E336" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.2">
@@ -6787,13 +6805,13 @@
         <v>357</v>
       </c>
       <c r="C337" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D337" t="b">
         <v>0</v>
       </c>
       <c r="E337" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.2">
@@ -6801,13 +6819,13 @@
         <v>358</v>
       </c>
       <c r="C338" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D338" t="b">
         <v>0</v>
       </c>
       <c r="E338" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.2">
@@ -6815,13 +6833,13 @@
         <v>359</v>
       </c>
       <c r="C339" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
       </c>
       <c r="E339" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.2">
@@ -6829,13 +6847,13 @@
         <v>360</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D340" t="b">
         <v>0</v>
       </c>
       <c r="E340" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.2">
@@ -6843,13 +6861,13 @@
         <v>361</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.2">
@@ -6857,13 +6875,13 @@
         <v>362</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D342" t="b">
         <v>0</v>
       </c>
       <c r="E342" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.2">
@@ -6871,13 +6889,13 @@
         <v>363</v>
       </c>
       <c r="C343" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D343" t="b">
         <v>0</v>
       </c>
       <c r="E343" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.2">
@@ -6885,13 +6903,13 @@
         <v>364</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.2">
@@ -6899,13 +6917,13 @@
         <v>365</v>
       </c>
       <c r="C345" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D345" t="b">
         <v>0</v>
       </c>
       <c r="E345" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.2">
@@ -6913,13 +6931,13 @@
         <v>366</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D346" t="b">
         <v>0</v>
       </c>
       <c r="E346" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.2">
@@ -6927,13 +6945,13 @@
         <v>367</v>
       </c>
       <c r="C347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.2">
@@ -6941,13 +6959,13 @@
         <v>368</v>
       </c>
       <c r="C348" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D348" t="b">
         <v>0</v>
       </c>
       <c r="E348" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.2">
@@ -6955,13 +6973,13 @@
         <v>369</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.2">
@@ -6969,13 +6987,13 @@
         <v>370</v>
       </c>
       <c r="C350" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D350" t="b">
         <v>0</v>
       </c>
       <c r="E350" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.2">
@@ -6983,13 +7001,13 @@
         <v>371</v>
       </c>
       <c r="C351" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D351" t="b">
         <v>0</v>
       </c>
       <c r="E351" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.2">
@@ -6997,13 +7015,13 @@
         <v>372</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D352" t="b">
         <v>0</v>
       </c>
       <c r="E352" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
@@ -7011,13 +7029,13 @@
         <v>373</v>
       </c>
       <c r="C353" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="354" spans="2:5" x14ac:dyDescent="0.2">
@@ -7025,13 +7043,13 @@
         <v>374</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D354" t="b">
         <v>0</v>
       </c>
       <c r="E354" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="355" spans="2:5" x14ac:dyDescent="0.2">
@@ -7039,13 +7057,13 @@
         <v>375</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D355" t="b">
         <v>0</v>
       </c>
       <c r="E355" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="356" spans="2:5" x14ac:dyDescent="0.2">
@@ -7053,13 +7071,13 @@
         <v>376</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D356" t="b">
         <v>0</v>
       </c>
       <c r="E356" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="357" spans="2:5" x14ac:dyDescent="0.2">
@@ -7067,13 +7085,13 @@
         <v>377</v>
       </c>
       <c r="C357" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="358" spans="2:5" x14ac:dyDescent="0.2">
@@ -7081,13 +7099,13 @@
         <v>378</v>
       </c>
       <c r="C358" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.2">
@@ -7095,13 +7113,13 @@
         <v>379</v>
       </c>
       <c r="C359" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D359" t="b">
         <v>0</v>
       </c>
       <c r="E359" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.2">
@@ -7109,13 +7127,13 @@
         <v>380</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D360" t="b">
         <v>0</v>
       </c>
       <c r="E360" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.2">
@@ -7123,13 +7141,13 @@
         <v>381</v>
       </c>
       <c r="C361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D361" t="b">
         <v>0</v>
       </c>
       <c r="E361" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="362" spans="2:5" x14ac:dyDescent="0.2">
@@ -7137,13 +7155,13 @@
         <v>382</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D362" t="b">
         <v>0</v>
       </c>
       <c r="E362" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.2">
@@ -7151,13 +7169,13 @@
         <v>383</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="2:5" x14ac:dyDescent="0.2">
@@ -7165,13 +7183,13 @@
         <v>384</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D364" t="b">
         <v>0</v>
       </c>
       <c r="E364" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="365" spans="2:5" x14ac:dyDescent="0.2">
@@ -7179,13 +7197,13 @@
         <v>385</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
       </c>
       <c r="E365" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.2">
@@ -7193,13 +7211,13 @@
         <v>386</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D366" t="b">
         <v>0</v>
       </c>
       <c r="E366" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.2">
@@ -7207,13 +7225,13 @@
         <v>387</v>
       </c>
       <c r="C367" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D367" t="b">
         <v>0</v>
       </c>
       <c r="E367" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="368" spans="2:5" x14ac:dyDescent="0.2">
@@ -7221,13 +7239,13 @@
         <v>388</v>
       </c>
       <c r="C368" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D368" t="b">
         <v>0</v>
       </c>
       <c r="E368" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="369" spans="2:5" x14ac:dyDescent="0.2">
@@ -7235,13 +7253,13 @@
         <v>389</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D369" t="b">
         <v>0</v>
       </c>
       <c r="E369" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="370" spans="2:5" x14ac:dyDescent="0.2">
@@ -7249,13 +7267,13 @@
         <v>390</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D370" t="b">
         <v>0</v>
       </c>
       <c r="E370" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="371" spans="2:5" x14ac:dyDescent="0.2">
@@ -7263,13 +7281,13 @@
         <v>391</v>
       </c>
       <c r="C371" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D371" t="b">
         <v>0</v>
       </c>
       <c r="E371" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="2:5" x14ac:dyDescent="0.2">
@@ -7277,13 +7295,13 @@
         <v>392</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="373" spans="2:5" x14ac:dyDescent="0.2">
@@ -7291,13 +7309,13 @@
         <v>393</v>
       </c>
       <c r="C373" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D373" t="b">
         <v>0</v>
       </c>
       <c r="E373" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.2">
@@ -7305,13 +7323,13 @@
         <v>394</v>
       </c>
       <c r="C374" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D374" t="b">
         <v>0</v>
       </c>
       <c r="E374" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.2">
@@ -7319,13 +7337,13 @@
         <v>395</v>
       </c>
       <c r="C375" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D375" t="b">
         <v>0</v>
       </c>
       <c r="E375" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.2">
@@ -7333,13 +7351,13 @@
         <v>396</v>
       </c>
       <c r="C376" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D376" t="b">
         <v>0</v>
       </c>
       <c r="E376" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="377" spans="2:5" x14ac:dyDescent="0.2">
@@ -7347,13 +7365,13 @@
         <v>397</v>
       </c>
       <c r="C377" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D377" t="b">
         <v>0</v>
       </c>
       <c r="E377" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.2">
@@ -7361,13 +7379,13 @@
         <v>398</v>
       </c>
       <c r="C378" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D378" t="b">
         <v>0</v>
       </c>
       <c r="E378" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="379" spans="2:5" x14ac:dyDescent="0.2">
@@ -7375,13 +7393,13 @@
         <v>399</v>
       </c>
       <c r="C379" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D379" t="b">
         <v>0</v>
       </c>
       <c r="E379" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="380" spans="2:5" x14ac:dyDescent="0.2">
@@ -7389,13 +7407,13 @@
         <v>400</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" t="b">
         <v>0</v>
       </c>
       <c r="E380" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="381" spans="2:5" x14ac:dyDescent="0.2">
@@ -7403,13 +7421,13 @@
         <v>401</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D381" t="b">
         <v>0</v>
       </c>
       <c r="E381" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="382" spans="2:5" x14ac:dyDescent="0.2">
@@ -7417,13 +7435,13 @@
         <v>402</v>
       </c>
       <c r="C382" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D382" t="b">
         <v>0</v>
       </c>
       <c r="E382" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="383" spans="2:5" x14ac:dyDescent="0.2">
@@ -7431,13 +7449,13 @@
         <v>403</v>
       </c>
       <c r="C383" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D383" t="b">
         <v>0</v>
       </c>
       <c r="E383" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="384" spans="2:5" x14ac:dyDescent="0.2">
@@ -7445,13 +7463,13 @@
         <v>404</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D384" t="b">
         <v>0</v>
       </c>
       <c r="E384" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.2">
@@ -7459,13 +7477,13 @@
         <v>405</v>
       </c>
       <c r="C385" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D385" t="b">
         <v>0</v>
       </c>
       <c r="E385" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.2">
@@ -7473,13 +7491,13 @@
         <v>406</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D386" t="b">
         <v>0</v>
       </c>
       <c r="E386" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="387" spans="2:5" x14ac:dyDescent="0.2">
@@ -7487,13 +7505,13 @@
         <v>407</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D387" t="b">
         <v>0</v>
       </c>
       <c r="E387" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.2">
@@ -7501,13 +7519,13 @@
         <v>408</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D388" t="b">
         <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.2">
@@ -7515,13 +7533,13 @@
         <v>409</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D389" t="b">
         <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.2">
@@ -7529,13 +7547,13 @@
         <v>410</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D390" t="b">
         <v>0</v>
       </c>
       <c r="E390" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.2">
@@ -7543,13 +7561,13 @@
         <v>411</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D391" t="b">
         <v>0</v>
       </c>
       <c r="E391" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.2">
@@ -7557,13 +7575,13 @@
         <v>412</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D392" t="b">
         <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.2">
@@ -7571,13 +7589,13 @@
         <v>413</v>
       </c>
       <c r="C393" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D393" t="b">
         <v>0</v>
       </c>
       <c r="E393" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.2">
@@ -7585,13 +7603,13 @@
         <v>414</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D394" t="b">
         <v>0</v>
       </c>
       <c r="E394" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.2">
@@ -7599,13 +7617,13 @@
         <v>415</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D395" t="b">
         <v>0</v>
       </c>
       <c r="E395" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.2">
@@ -7613,13 +7631,13 @@
         <v>416</v>
       </c>
       <c r="C396" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D396" t="b">
         <v>0</v>
       </c>
       <c r="E396" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.2">
@@ -7627,13 +7645,13 @@
         <v>417</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D397" t="b">
         <v>0</v>
       </c>
       <c r="E397" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.2">
@@ -7641,13 +7659,13 @@
         <v>418</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D398" t="b">
         <v>0</v>
       </c>
       <c r="E398" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.2">
@@ -7655,13 +7673,13 @@
         <v>419</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D399" t="b">
         <v>0</v>
       </c>
       <c r="E399" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.2">
@@ -7669,13 +7687,13 @@
         <v>420</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D400" t="b">
         <v>0</v>
       </c>
       <c r="E400" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
@@ -7683,13 +7701,13 @@
         <v>421</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D401" t="b">
         <v>0</v>
       </c>
       <c r="E401" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
@@ -7697,13 +7715,13 @@
         <v>422</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D402" t="b">
         <v>0</v>
       </c>
       <c r="E402" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.2">
@@ -7711,13 +7729,13 @@
         <v>423</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D403" t="b">
         <v>0</v>
       </c>
       <c r="E403" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
@@ -7725,13 +7743,13 @@
         <v>424</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D404" t="b">
         <v>0</v>
       </c>
       <c r="E404" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
@@ -7739,13 +7757,13 @@
         <v>425</v>
       </c>
       <c r="C405" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D405" t="b">
         <v>0</v>
       </c>
       <c r="E405" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.2">
@@ -7753,13 +7771,13 @@
         <v>426</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D406" t="b">
         <v>0</v>
       </c>
       <c r="E406" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
@@ -7767,13 +7785,13 @@
         <v>427</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D407" t="b">
         <v>0</v>
       </c>
       <c r="E407" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
@@ -7781,13 +7799,13 @@
         <v>428</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D408" t="b">
         <v>0</v>
       </c>
       <c r="E408" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.2">
@@ -7795,13 +7813,13 @@
         <v>429</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D409" t="b">
         <v>0</v>
       </c>
       <c r="E409" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
@@ -7809,13 +7827,13 @@
         <v>430</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D410" t="b">
         <v>0</v>
       </c>
       <c r="E410" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
@@ -7823,13 +7841,13 @@
         <v>431</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D411" t="b">
         <v>0</v>
       </c>
       <c r="E411" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
@@ -7837,13 +7855,13 @@
         <v>432</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D412" t="b">
         <v>0</v>
       </c>
       <c r="E412" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
@@ -7851,13 +7869,13 @@
         <v>433</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D413" t="b">
         <v>0</v>
       </c>
       <c r="E413" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
@@ -7865,13 +7883,13 @@
         <v>434</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D414" t="b">
         <v>0</v>
       </c>
       <c r="E414" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
@@ -7879,13 +7897,13 @@
         <v>435</v>
       </c>
       <c r="C415" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D415" t="b">
         <v>0</v>
       </c>
       <c r="E415" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
@@ -7893,13 +7911,13 @@
         <v>436</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D416" t="b">
         <v>0</v>
       </c>
       <c r="E416" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.2">
@@ -7907,13 +7925,13 @@
         <v>437</v>
       </c>
       <c r="C417" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D417" t="b">
         <v>0</v>
       </c>
       <c r="E417" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.2">
@@ -7921,13 +7939,13 @@
         <v>438</v>
       </c>
       <c r="C418" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D418" t="b">
         <v>0</v>
       </c>
       <c r="E418" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.2">
@@ -7935,13 +7953,13 @@
         <v>439</v>
       </c>
       <c r="C419" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D419" t="b">
         <v>0</v>
       </c>
       <c r="E419" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.2">
@@ -7949,13 +7967,13 @@
         <v>440</v>
       </c>
       <c r="C420" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D420" t="b">
         <v>0</v>
       </c>
       <c r="E420" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.2">
@@ -7963,13 +7981,13 @@
         <v>441</v>
       </c>
       <c r="C421" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D421" t="b">
         <v>0</v>
       </c>
       <c r="E421" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.2">
@@ -7977,13 +7995,13 @@
         <v>442</v>
       </c>
       <c r="C422" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D422" t="b">
         <v>0</v>
       </c>
       <c r="E422" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.2">
@@ -7991,13 +8009,13 @@
         <v>443</v>
       </c>
       <c r="C423" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D423" t="b">
         <v>0</v>
       </c>
       <c r="E423" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="424" spans="2:5" x14ac:dyDescent="0.2">
@@ -8005,13 +8023,13 @@
         <v>444</v>
       </c>
       <c r="C424" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D424" t="b">
         <v>0</v>
       </c>
       <c r="E424" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.2">
@@ -8019,13 +8037,13 @@
         <v>445</v>
       </c>
       <c r="C425" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D425" t="b">
         <v>0</v>
       </c>
       <c r="E425" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="426" spans="2:5" x14ac:dyDescent="0.2">
@@ -8033,13 +8051,13 @@
         <v>446</v>
       </c>
       <c r="C426" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D426" t="b">
         <v>0</v>
       </c>
       <c r="E426" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="427" spans="2:5" x14ac:dyDescent="0.2">
@@ -8047,13 +8065,13 @@
         <v>447</v>
       </c>
       <c r="C427" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D427" t="b">
         <v>0</v>
       </c>
       <c r="E427" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.2">
@@ -8061,13 +8079,13 @@
         <v>448</v>
       </c>
       <c r="C428" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D428" t="b">
         <v>0</v>
       </c>
       <c r="E428" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
@@ -8075,13 +8093,13 @@
         <v>449</v>
       </c>
       <c r="C429" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D429" t="b">
         <v>0</v>
       </c>
       <c r="E429" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="430" spans="2:5" x14ac:dyDescent="0.2">
@@ -8089,13 +8107,13 @@
         <v>450</v>
       </c>
       <c r="C430" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D430" t="b">
         <v>0</v>
       </c>
       <c r="E430" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="431" spans="2:5" x14ac:dyDescent="0.2">
@@ -8103,13 +8121,13 @@
         <v>451</v>
       </c>
       <c r="C431" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D431" t="b">
         <v>0</v>
       </c>
       <c r="E431" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="432" spans="2:5" x14ac:dyDescent="0.2">
@@ -8117,13 +8135,13 @@
         <v>452</v>
       </c>
       <c r="C432" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D432" t="b">
         <v>0</v>
       </c>
       <c r="E432" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
@@ -8131,13 +8149,13 @@
         <v>453</v>
       </c>
       <c r="C433" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D433" t="b">
         <v>0</v>
       </c>
       <c r="E433" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="434" spans="2:5" x14ac:dyDescent="0.2">
@@ -8145,13 +8163,13 @@
         <v>454</v>
       </c>
       <c r="C434" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D434" t="b">
         <v>0</v>
       </c>
       <c r="E434" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="435" spans="2:5" x14ac:dyDescent="0.2">
@@ -8159,13 +8177,13 @@
         <v>455</v>
       </c>
       <c r="C435" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D435" t="b">
         <v>0</v>
       </c>
       <c r="E435" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="436" spans="2:5" x14ac:dyDescent="0.2">
@@ -8173,13 +8191,13 @@
         <v>456</v>
       </c>
       <c r="C436" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D436" t="b">
         <v>0</v>
       </c>
       <c r="E436" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.2">
@@ -8187,13 +8205,13 @@
         <v>457</v>
       </c>
       <c r="C437" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D437" t="b">
         <v>0</v>
       </c>
       <c r="E437" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="438" spans="2:5" x14ac:dyDescent="0.2">
@@ -8201,13 +8219,13 @@
         <v>458</v>
       </c>
       <c r="C438" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D438" t="b">
         <v>0</v>
       </c>
       <c r="E438" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
@@ -8215,13 +8233,13 @@
         <v>459</v>
       </c>
       <c r="C439" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D439" t="b">
         <v>0</v>
       </c>
       <c r="E439" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="440" spans="2:5" x14ac:dyDescent="0.2">
@@ -8229,13 +8247,13 @@
         <v>460</v>
       </c>
       <c r="C440" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D440" t="b">
         <v>0</v>
       </c>
       <c r="E440" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.2">
@@ -8243,13 +8261,13 @@
         <v>461</v>
       </c>
       <c r="C441" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D441" t="b">
         <v>0</v>
       </c>
       <c r="E441" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.2">
@@ -8257,13 +8275,13 @@
         <v>462</v>
       </c>
       <c r="C442" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D442" t="b">
         <v>0</v>
       </c>
       <c r="E442" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.2">
@@ -8271,13 +8289,13 @@
         <v>463</v>
       </c>
       <c r="C443" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D443" t="b">
         <v>0</v>
       </c>
       <c r="E443" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="444" spans="2:5" x14ac:dyDescent="0.2">
@@ -8285,13 +8303,13 @@
         <v>464</v>
       </c>
       <c r="C444" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D444" t="b">
         <v>0</v>
       </c>
       <c r="E444" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.2">
@@ -8299,13 +8317,13 @@
         <v>465</v>
       </c>
       <c r="C445" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D445" t="b">
         <v>0</v>
       </c>
       <c r="E445" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="446" spans="2:5" x14ac:dyDescent="0.2">
@@ -8313,13 +8331,13 @@
         <v>466</v>
       </c>
       <c r="C446" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D446" t="b">
         <v>0</v>
       </c>
       <c r="E446" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="447" spans="2:5" x14ac:dyDescent="0.2">
@@ -8327,13 +8345,13 @@
         <v>467</v>
       </c>
       <c r="C447" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D447" t="b">
         <v>0</v>
       </c>
       <c r="E447" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.2">
@@ -8341,13 +8359,13 @@
         <v>468</v>
       </c>
       <c r="C448" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D448" t="b">
         <v>0</v>
       </c>
       <c r="E448" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="449" spans="2:5" x14ac:dyDescent="0.2">
@@ -8355,13 +8373,13 @@
         <v>469</v>
       </c>
       <c r="C449" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D449" t="b">
         <v>0</v>
       </c>
       <c r="E449" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="450" spans="2:5" x14ac:dyDescent="0.2">
@@ -8369,13 +8387,13 @@
         <v>470</v>
       </c>
       <c r="C450" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D450" t="b">
         <v>0</v>
       </c>
       <c r="E450" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="451" spans="2:5" x14ac:dyDescent="0.2">
@@ -8383,13 +8401,13 @@
         <v>471</v>
       </c>
       <c r="C451" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D451" t="b">
         <v>0</v>
       </c>
       <c r="E451" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="452" spans="2:5" x14ac:dyDescent="0.2">
@@ -8397,13 +8415,13 @@
         <v>472</v>
       </c>
       <c r="C452" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D452" t="b">
         <v>0</v>
       </c>
       <c r="E452" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="453" spans="2:5" x14ac:dyDescent="0.2">
@@ -8411,13 +8429,13 @@
         <v>473</v>
       </c>
       <c r="C453" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D453" t="b">
         <v>0</v>
       </c>
       <c r="E453" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="454" spans="2:5" x14ac:dyDescent="0.2">
@@ -8425,13 +8443,13 @@
         <v>474</v>
       </c>
       <c r="C454" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D454" t="b">
         <v>0</v>
       </c>
       <c r="E454" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="455" spans="2:5" x14ac:dyDescent="0.2">
@@ -8439,13 +8457,13 @@
         <v>475</v>
       </c>
       <c r="C455" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D455" t="b">
         <v>0</v>
       </c>
       <c r="E455" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="456" spans="2:5" x14ac:dyDescent="0.2">
@@ -8453,13 +8471,13 @@
         <v>476</v>
       </c>
       <c r="C456" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D456" t="b">
         <v>0</v>
       </c>
       <c r="E456" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.2">
@@ -8467,13 +8485,13 @@
         <v>477</v>
       </c>
       <c r="C457" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D457" t="b">
         <v>0</v>
       </c>
       <c r="E457" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.2">
@@ -8481,13 +8499,13 @@
         <v>478</v>
       </c>
       <c r="C458" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D458" t="b">
         <v>0</v>
       </c>
       <c r="E458" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
@@ -8495,13 +8513,13 @@
         <v>479</v>
       </c>
       <c r="C459" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D459" t="b">
         <v>0</v>
       </c>
       <c r="E459" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="460" spans="2:5" x14ac:dyDescent="0.2">
@@ -8509,13 +8527,13 @@
         <v>480</v>
       </c>
       <c r="C460" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D460" t="b">
         <v>0</v>
       </c>
       <c r="E460" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.2">
@@ -8523,13 +8541,13 @@
         <v>481</v>
       </c>
       <c r="C461" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D461" t="b">
         <v>0</v>
       </c>
       <c r="E461" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="462" spans="2:5" x14ac:dyDescent="0.2">
@@ -8537,13 +8555,13 @@
         <v>482</v>
       </c>
       <c r="C462" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D462" t="b">
         <v>0</v>
       </c>
       <c r="E462" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="463" spans="2:5" x14ac:dyDescent="0.2">
@@ -8551,13 +8569,13 @@
         <v>483</v>
       </c>
       <c r="C463" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D463" t="b">
         <v>0</v>
       </c>
       <c r="E463" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.2">
@@ -8565,13 +8583,13 @@
         <v>484</v>
       </c>
       <c r="C464" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D464" t="b">
         <v>0</v>
       </c>
       <c r="E464" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="465" spans="2:5" x14ac:dyDescent="0.2">
@@ -8579,13 +8597,13 @@
         <v>485</v>
       </c>
       <c r="C465" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D465" t="b">
         <v>0</v>
       </c>
       <c r="E465" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="466" spans="2:5" x14ac:dyDescent="0.2">
@@ -8593,13 +8611,13 @@
         <v>486</v>
       </c>
       <c r="C466" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D466" t="b">
         <v>0</v>
       </c>
       <c r="E466" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="467" spans="2:5" x14ac:dyDescent="0.2">
@@ -8607,13 +8625,13 @@
         <v>487</v>
       </c>
       <c r="C467" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D467" t="b">
         <v>0</v>
       </c>
       <c r="E467" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="468" spans="2:5" x14ac:dyDescent="0.2">
@@ -8621,13 +8639,13 @@
         <v>488</v>
       </c>
       <c r="C468" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D468" t="b">
         <v>0</v>
       </c>
       <c r="E468" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="469" spans="2:5" x14ac:dyDescent="0.2">
@@ -8635,13 +8653,13 @@
         <v>489</v>
       </c>
       <c r="C469" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D469" t="b">
         <v>0</v>
       </c>
       <c r="E469" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="470" spans="2:5" x14ac:dyDescent="0.2">
@@ -8649,13 +8667,13 @@
         <v>490</v>
       </c>
       <c r="C470" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D470" t="b">
         <v>0</v>
       </c>
       <c r="E470" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="471" spans="2:5" x14ac:dyDescent="0.2">
@@ -8663,13 +8681,13 @@
         <v>491</v>
       </c>
       <c r="C471" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D471" t="b">
         <v>0</v>
       </c>
       <c r="E471" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="472" spans="2:5" x14ac:dyDescent="0.2">
@@ -8677,13 +8695,13 @@
         <v>492</v>
       </c>
       <c r="C472" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D472" t="b">
         <v>0</v>
       </c>
       <c r="E472" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.2">
@@ -8691,13 +8709,13 @@
         <v>493</v>
       </c>
       <c r="C473" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D473" t="b">
         <v>0</v>
       </c>
       <c r="E473" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.2">
@@ -8705,13 +8723,13 @@
         <v>494</v>
       </c>
       <c r="C474" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D474" t="b">
         <v>0</v>
       </c>
       <c r="E474" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.2">
@@ -8719,13 +8737,13 @@
         <v>495</v>
       </c>
       <c r="C475" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D475" t="b">
         <v>0</v>
       </c>
       <c r="E475" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="476" spans="2:5" x14ac:dyDescent="0.2">
@@ -8733,13 +8751,13 @@
         <v>496</v>
       </c>
       <c r="C476" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D476" t="b">
         <v>0</v>
       </c>
       <c r="E476" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.2">
@@ -8747,13 +8765,13 @@
         <v>497</v>
       </c>
       <c r="C477" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D477" t="b">
         <v>0</v>
       </c>
       <c r="E477" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="478" spans="2:5" x14ac:dyDescent="0.2">
@@ -8761,13 +8779,13 @@
         <v>498</v>
       </c>
       <c r="C478" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D478" t="b">
         <v>0</v>
       </c>
       <c r="E478" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="479" spans="2:5" x14ac:dyDescent="0.2">
@@ -8775,13 +8793,13 @@
         <v>499</v>
       </c>
       <c r="C479" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D479" t="b">
         <v>0</v>
       </c>
       <c r="E479" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.2">
@@ -8789,13 +8807,13 @@
         <v>500</v>
       </c>
       <c r="C480" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D480" t="b">
         <v>0</v>
       </c>
       <c r="E480" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="481" spans="2:5" x14ac:dyDescent="0.2">
@@ -8803,13 +8821,13 @@
         <v>501</v>
       </c>
       <c r="C481" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D481" t="b">
         <v>0</v>
       </c>
       <c r="E481" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="482" spans="2:5" x14ac:dyDescent="0.2">
@@ -8817,13 +8835,13 @@
         <v>502</v>
       </c>
       <c r="C482" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D482" t="b">
         <v>0</v>
       </c>
       <c r="E482" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="483" spans="2:5" x14ac:dyDescent="0.2">
@@ -8831,13 +8849,13 @@
         <v>503</v>
       </c>
       <c r="C483" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D483" t="b">
         <v>0</v>
       </c>
       <c r="E483" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="484" spans="2:5" x14ac:dyDescent="0.2">
@@ -8845,13 +8863,13 @@
         <v>504</v>
       </c>
       <c r="C484" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D484" t="b">
         <v>0</v>
       </c>
       <c r="E484" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="485" spans="2:5" x14ac:dyDescent="0.2">
@@ -8859,13 +8877,13 @@
         <v>505</v>
       </c>
       <c r="C485" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D485" t="b">
         <v>0</v>
       </c>
       <c r="E485" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="486" spans="2:5" x14ac:dyDescent="0.2">
@@ -8873,13 +8891,13 @@
         <v>506</v>
       </c>
       <c r="C486" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D486" t="b">
         <v>0</v>
       </c>
       <c r="E486" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="487" spans="2:5" x14ac:dyDescent="0.2">
@@ -8887,13 +8905,13 @@
         <v>507</v>
       </c>
       <c r="C487" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D487" t="b">
         <v>0</v>
       </c>
       <c r="E487" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="488" spans="2:5" x14ac:dyDescent="0.2">
@@ -8901,13 +8919,13 @@
         <v>508</v>
       </c>
       <c r="C488" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D488" t="b">
         <v>0</v>
       </c>
       <c r="E488" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.2">
@@ -8915,13 +8933,13 @@
         <v>509</v>
       </c>
       <c r="C489" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D489" t="b">
         <v>0</v>
       </c>
       <c r="E489" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.2">
@@ -8929,13 +8947,13 @@
         <v>510</v>
       </c>
       <c r="C490" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D490" t="b">
         <v>0</v>
       </c>
       <c r="E490" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.2">
@@ -8943,13 +8961,13 @@
         <v>511</v>
       </c>
       <c r="C491" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D491" t="b">
         <v>0</v>
       </c>
       <c r="E491" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="492" spans="2:5" x14ac:dyDescent="0.2">
@@ -8957,13 +8975,13 @@
         <v>512</v>
       </c>
       <c r="C492" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D492" t="b">
         <v>0</v>
       </c>
       <c r="E492" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.2">
@@ -8971,13 +8989,13 @@
         <v>513</v>
       </c>
       <c r="C493" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D493" t="b">
         <v>0</v>
       </c>
       <c r="E493" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="494" spans="2:5" x14ac:dyDescent="0.2">
@@ -8985,13 +9003,13 @@
         <v>514</v>
       </c>
       <c r="C494" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D494" t="b">
         <v>0</v>
       </c>
       <c r="E494" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="495" spans="2:5" x14ac:dyDescent="0.2">
@@ -8999,13 +9017,13 @@
         <v>515</v>
       </c>
       <c r="C495" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D495" t="b">
         <v>0</v>
       </c>
       <c r="E495" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.2">
@@ -9013,13 +9031,13 @@
         <v>516</v>
       </c>
       <c r="C496" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D496" t="b">
         <v>0</v>
       </c>
       <c r="E496" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="497" spans="2:5" x14ac:dyDescent="0.2">
@@ -9027,13 +9045,13 @@
         <v>517</v>
       </c>
       <c r="C497" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D497" t="b">
         <v>0</v>
       </c>
       <c r="E497" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="498" spans="2:5" x14ac:dyDescent="0.2">
@@ -9041,13 +9059,13 @@
         <v>518</v>
       </c>
       <c r="C498" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D498" t="b">
         <v>0</v>
       </c>
       <c r="E498" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="499" spans="2:5" x14ac:dyDescent="0.2">
@@ -9055,13 +9073,13 @@
         <v>519</v>
       </c>
       <c r="C499" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D499" t="b">
         <v>0</v>
       </c>
       <c r="E499" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="500" spans="2:5" x14ac:dyDescent="0.2">
@@ -9069,13 +9087,13 @@
         <v>520</v>
       </c>
       <c r="C500" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D500" t="b">
         <v>0</v>
       </c>
       <c r="E500" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="501" spans="2:5" x14ac:dyDescent="0.2">
@@ -9083,13 +9101,13 @@
         <v>521</v>
       </c>
       <c r="C501" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D501" t="b">
         <v>0</v>
       </c>
       <c r="E501" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="502" spans="2:5" x14ac:dyDescent="0.2">
@@ -9097,13 +9115,13 @@
         <v>522</v>
       </c>
       <c r="C502" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D502" t="b">
         <v>0</v>
       </c>
       <c r="E502" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="503" spans="2:5" x14ac:dyDescent="0.2">
@@ -9111,27 +9129,13 @@
         <v>523</v>
       </c>
       <c r="C503" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D503" t="b">
         <v>0</v>
       </c>
       <c r="E503" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B504" t="s">
-        <v>524</v>
-      </c>
-      <c r="C504" t="s">
-        <v>25</v>
-      </c>
-      <c r="D504" t="b">
-        <v>0</v>
-      </c>
-      <c r="E504" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
